--- a/Data for the exercises/__USE US__/5. Fifth lab/Aegean Islands.xlsx
+++ b/Data for the exercises/__USE US__/5. Fifth lab/Aegean Islands.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Academic\Lessons\EMB\Labs\Labs\EMB_Upatras\Data for the exercises\__USE US__\5. Fifth lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,12 +66,6 @@
     <t>Antikythira</t>
   </si>
   <si>
-    <t>Antimilos</t>
-  </si>
-  <si>
-    <t>Antiparos</t>
-  </si>
-  <si>
     <t>Astypalea</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>Gioura</t>
   </si>
   <si>
-    <t>Gyaros</t>
-  </si>
-  <si>
     <t>Ikaria</t>
   </si>
   <si>
@@ -138,12 +129,6 @@
     <t>Kyra Panagia</t>
   </si>
   <si>
-    <t>Kythira</t>
-  </si>
-  <si>
-    <t>Kythnos</t>
-  </si>
-  <si>
     <t>Leros</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>Milos</t>
   </si>
   <si>
-    <t>Mykonos</t>
-  </si>
-  <si>
     <t>Naxos</t>
   </si>
   <si>
@@ -174,9 +156,6 @@
     <t>Polyaegos</t>
   </si>
   <si>
-    <t>Rhodos</t>
-  </si>
-  <si>
     <t>Rinia</t>
   </si>
   <si>
@@ -186,9 +165,6 @@
     <t>Samothraki</t>
   </si>
   <si>
-    <t>Santorini</t>
-  </si>
-  <si>
     <t>Saria</t>
   </si>
   <si>
@@ -213,12 +189,6 @@
     <t>Skyros</t>
   </si>
   <si>
-    <t>Symi</t>
-  </si>
-  <si>
-    <t>Syros</t>
-  </si>
-  <si>
     <t>Thasos</t>
   </si>
   <si>
@@ -226,6 +196,36 @@
   </si>
   <si>
     <t>Tinos</t>
+  </si>
+  <si>
+    <t>Andimilos</t>
+  </si>
+  <si>
+    <t>Andiparos</t>
+  </si>
+  <si>
+    <t>Giaros</t>
+  </si>
+  <si>
+    <t>Kithira</t>
+  </si>
+  <si>
+    <t>Kithnos</t>
+  </si>
+  <si>
+    <t>Mikonos</t>
+  </si>
+  <si>
+    <t>Rodos</t>
+  </si>
+  <si>
+    <t>Simi</t>
+  </si>
+  <si>
+    <t>Thira</t>
+  </si>
+  <si>
+    <t>Siros</t>
   </si>
 </sst>
 </file>
@@ -1063,13 +1063,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1202,135 +1208,135 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1">
-        <v>380</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>1003</v>
+        <v>671</v>
       </c>
       <c r="D5" s="1">
-        <v>130.22200000000001</v>
+        <v>119.90900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>393.11099999999999</v>
+        <v>436.80200000000002</v>
       </c>
       <c r="F5" s="1">
-        <v>169.667</v>
+        <v>166.31100000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>462.66699999999997</v>
+        <v>471.07400000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>9.2899999999999991</v>
+        <v>1.52</v>
       </c>
       <c r="I5" s="1">
-        <v>55.6</v>
+        <v>98.9</v>
       </c>
       <c r="J5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1">
-        <v>19.7</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="D6" s="1">
-        <v>138.66</v>
+        <v>140.273</v>
       </c>
       <c r="E6" s="1">
-        <v>361.76600000000002</v>
+        <v>562.81799999999998</v>
       </c>
       <c r="F6" s="1">
-        <v>181.489</v>
+        <v>183.59100000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>401.80900000000003</v>
+        <v>574.81799999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>1.7</v>
+        <v>32.39</v>
       </c>
       <c r="I6" s="1">
         <v>112.2</v>
       </c>
       <c r="J6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>380</v>
       </c>
       <c r="C7" s="1">
-        <v>671</v>
+        <v>1003</v>
       </c>
       <c r="D7" s="1">
-        <v>119.90900000000001</v>
+        <v>130.22200000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>436.80200000000002</v>
+        <v>393.11099999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>166.31100000000001</v>
+        <v>169.667</v>
       </c>
       <c r="G7" s="1">
-        <v>471.07400000000001</v>
+        <v>462.66699999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>1.52</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="I7" s="1">
-        <v>98.9</v>
+        <v>55.6</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>35</v>
+        <v>19.7</v>
       </c>
       <c r="C8" s="1">
-        <v>301</v>
+        <v>378</v>
       </c>
       <c r="D8" s="1">
-        <v>140.273</v>
+        <v>138.66</v>
       </c>
       <c r="E8" s="1">
-        <v>562.81799999999998</v>
+        <v>361.76600000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>183.59100000000001</v>
+        <v>181.489</v>
       </c>
       <c r="G8" s="1">
-        <v>574.81799999999998</v>
+        <v>401.80900000000003</v>
       </c>
       <c r="H8" s="1">
-        <v>32.39</v>
+        <v>1.7</v>
       </c>
       <c r="I8" s="1">
         <v>112.2</v>
       </c>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>97</v>
@@ -1362,7 +1368,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>27.2</v>
@@ -1394,7 +1400,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>842.8</v>
@@ -1426,7 +1432,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>14</v>
@@ -1458,7 +1464,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>18</v>
@@ -1490,7 +1496,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>3670</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>32</v>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>32.700000000000003</v>
@@ -1586,31 +1592,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>570</v>
+        <v>490</v>
       </c>
       <c r="D17" s="1">
-        <v>128.54499999999999</v>
+        <v>107.688</v>
       </c>
       <c r="E17" s="1">
-        <v>390.18200000000002</v>
+        <v>494.93799999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>174.40899999999999</v>
+        <v>157.75</v>
       </c>
       <c r="G17" s="1">
-        <v>425.77300000000002</v>
+        <v>496.56299999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>15.3</v>
+        <v>3.93</v>
       </c>
       <c r="I17" s="1">
-        <v>74</v>
+        <v>38.9</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -1618,31 +1624,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="D18" s="1">
-        <v>107.688</v>
+        <v>128.54499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>494.93799999999999</v>
+        <v>390.18200000000002</v>
       </c>
       <c r="F18" s="1">
-        <v>157.75</v>
+        <v>174.40899999999999</v>
       </c>
       <c r="G18" s="1">
-        <v>496.56299999999999</v>
+        <v>425.77300000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>3.93</v>
+        <v>15.3</v>
       </c>
       <c r="I18" s="1">
-        <v>38.9</v>
+        <v>74</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -1650,7 +1656,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>255.3</v>
@@ -1682,7 +1688,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>109</v>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>18</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
         <v>110.6</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1">
         <v>300.89999999999998</v>
@@ -1810,7 +1816,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1">
         <v>66.7</v>
@@ -1842,7 +1848,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1">
         <v>132</v>
@@ -1874,7 +1880,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>15</v>
@@ -1906,7 +1912,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1">
         <v>36</v>
@@ -1938,159 +1944,159 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1">
-        <v>287.60000000000002</v>
+        <v>277.2</v>
       </c>
       <c r="C28" s="1">
-        <v>846</v>
+        <v>507</v>
       </c>
       <c r="D28" s="1">
-        <v>127.419</v>
+        <v>122.23</v>
       </c>
       <c r="E28" s="1">
-        <v>609.072</v>
+        <v>748.798</v>
       </c>
       <c r="F28" s="1">
-        <v>173.11099999999999</v>
+        <v>164.10300000000001</v>
       </c>
       <c r="G28" s="1">
-        <v>596.22400000000005</v>
+        <v>768.38699999999994</v>
       </c>
       <c r="H28" s="1">
-        <v>9.59</v>
+        <v>32.64</v>
       </c>
       <c r="I28" s="1">
-        <v>4.5999999999999996</v>
+        <v>13.7</v>
       </c>
       <c r="J28" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1">
-        <v>8264.6</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1">
-        <v>2456</v>
+        <v>336</v>
       </c>
       <c r="D29" s="1">
-        <v>132.91499999999999</v>
+        <v>112.688</v>
       </c>
       <c r="E29" s="1">
-        <v>365.87200000000001</v>
+        <v>480.34399999999999</v>
       </c>
       <c r="F29" s="1">
-        <v>177.65199999999999</v>
+        <v>164.21899999999999</v>
       </c>
       <c r="G29" s="1">
-        <v>405.38299999999998</v>
+        <v>480.625</v>
       </c>
       <c r="H29" s="1">
-        <v>12.14</v>
+        <v>3.93</v>
       </c>
       <c r="I29" s="1">
-        <v>96.6</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="J29" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
-        <v>25</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="C30" s="1">
-        <v>299</v>
+        <v>846</v>
       </c>
       <c r="D30" s="1">
-        <v>139.03200000000001</v>
+        <v>127.419</v>
       </c>
       <c r="E30" s="1">
-        <v>714.77800000000002</v>
+        <v>609.072</v>
       </c>
       <c r="F30" s="1">
-        <v>184.453</v>
+        <v>173.11099999999999</v>
       </c>
       <c r="G30" s="1">
-        <v>731.92899999999997</v>
+        <v>596.22400000000005</v>
       </c>
       <c r="H30" s="1">
-        <v>10.68</v>
+        <v>9.59</v>
       </c>
       <c r="I30" s="1">
-        <v>65</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J30" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
-        <v>277.2</v>
+        <v>8264.6</v>
       </c>
       <c r="C31" s="1">
-        <v>507</v>
+        <v>2456</v>
       </c>
       <c r="D31" s="1">
-        <v>122.23</v>
+        <v>132.91499999999999</v>
       </c>
       <c r="E31" s="1">
-        <v>748.798</v>
+        <v>365.87200000000001</v>
       </c>
       <c r="F31" s="1">
-        <v>164.10300000000001</v>
+        <v>177.65199999999999</v>
       </c>
       <c r="G31" s="1">
-        <v>768.38699999999994</v>
+        <v>405.38299999999998</v>
       </c>
       <c r="H31" s="1">
-        <v>32.64</v>
+        <v>12.14</v>
       </c>
       <c r="I31" s="1">
-        <v>13.7</v>
+        <v>96.6</v>
       </c>
       <c r="J31" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="D32" s="1">
-        <v>112.688</v>
+        <v>139.03200000000001</v>
       </c>
       <c r="E32" s="1">
-        <v>480.34399999999999</v>
+        <v>714.77800000000002</v>
       </c>
       <c r="F32" s="1">
-        <v>164.21899999999999</v>
+        <v>184.453</v>
       </c>
       <c r="G32" s="1">
-        <v>480.625</v>
+        <v>731.92899999999997</v>
       </c>
       <c r="H32" s="1">
-        <v>3.93</v>
+        <v>10.68</v>
       </c>
       <c r="I32" s="1">
-        <v>37.299999999999997</v>
+        <v>65</v>
       </c>
       <c r="J32" s="1">
         <v>2</v>
@@ -2098,7 +2104,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>54</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
         <v>1636</v>
@@ -2162,7 +2168,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <v>476</v>
@@ -2194,31 +2200,31 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1">
-        <v>748</v>
+        <v>373</v>
       </c>
       <c r="D36" s="1">
-        <v>134.05099999999999</v>
+        <v>137.55500000000001</v>
       </c>
       <c r="E36" s="1">
-        <v>403.34699999999998</v>
+        <v>373.14400000000001</v>
       </c>
       <c r="F36" s="1">
-        <v>178.77099999999999</v>
+        <v>179.56899999999999</v>
       </c>
       <c r="G36" s="1">
-        <v>433.97500000000002</v>
+        <v>421.68900000000002</v>
       </c>
       <c r="H36" s="1">
-        <v>2.67</v>
+        <v>1.73</v>
       </c>
       <c r="I36" s="1">
-        <v>103.1</v>
+        <v>112</v>
       </c>
       <c r="J36" s="1">
         <v>5</v>
@@ -2226,31 +2232,31 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C37" s="1">
-        <v>373</v>
+        <v>748</v>
       </c>
       <c r="D37" s="1">
-        <v>137.55500000000001</v>
+        <v>134.05099999999999</v>
       </c>
       <c r="E37" s="1">
-        <v>373.14400000000001</v>
+        <v>403.34699999999998</v>
       </c>
       <c r="F37" s="1">
-        <v>179.56899999999999</v>
+        <v>178.77099999999999</v>
       </c>
       <c r="G37" s="1">
-        <v>421.68900000000002</v>
+        <v>433.97500000000002</v>
       </c>
       <c r="H37" s="1">
-        <v>1.73</v>
+        <v>2.67</v>
       </c>
       <c r="I37" s="1">
-        <v>112</v>
+        <v>103.1</v>
       </c>
       <c r="J37" s="1">
         <v>5</v>
@@ -2258,7 +2264,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1">
         <v>428</v>
@@ -2290,7 +2296,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1">
         <v>41</v>
@@ -2322,7 +2328,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1">
         <v>194</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1">
         <v>34</v>
@@ -2386,7 +2392,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1">
         <v>18</v>
@@ -2418,71 +2424,71 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1">
-        <v>1401.5</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1">
-        <v>1240</v>
+        <v>136</v>
       </c>
       <c r="D43" s="1">
-        <v>138.10499999999999</v>
+        <v>137.28200000000001</v>
       </c>
       <c r="E43" s="1">
-        <v>373.053</v>
+        <v>889.26099999999997</v>
       </c>
       <c r="F43" s="1">
-        <v>182.36799999999999</v>
+        <v>180.73</v>
       </c>
       <c r="G43" s="1">
-        <v>406.31599999999997</v>
+        <v>878.12800000000004</v>
       </c>
       <c r="H43" s="1">
-        <v>2.67</v>
+        <v>9.4</v>
       </c>
       <c r="I43" s="1">
-        <v>17.600000000000001</v>
+        <v>103.1</v>
       </c>
       <c r="J43" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1">
+        <v>1401.5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1240</v>
+      </c>
+      <c r="D44" s="1">
+        <v>138.10499999999999</v>
+      </c>
+      <c r="E44" s="1">
+        <v>373.053</v>
+      </c>
+      <c r="F44" s="1">
+        <v>182.36799999999999</v>
+      </c>
+      <c r="G44" s="1">
+        <v>406.31599999999997</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="I44" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J44" s="1">
         <v>14</v>
-      </c>
-      <c r="C44" s="1">
-        <v>136</v>
-      </c>
-      <c r="D44" s="1">
-        <v>137.28200000000001</v>
-      </c>
-      <c r="E44" s="1">
-        <v>889.26099999999997</v>
-      </c>
-      <c r="F44" s="1">
-        <v>180.73</v>
-      </c>
-      <c r="G44" s="1">
-        <v>878.12800000000004</v>
-      </c>
-      <c r="H44" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="I44" s="1">
-        <v>103.1</v>
-      </c>
-      <c r="J44" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1">
         <v>477.9</v>
@@ -2514,7 +2520,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1">
         <v>178</v>
@@ -2546,191 +2552,191 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1">
-        <v>76</v>
+        <v>20.5</v>
       </c>
       <c r="C47" s="1">
-        <v>567</v>
+        <v>630</v>
       </c>
       <c r="D47" s="1">
-        <v>141.61500000000001</v>
+        <v>141.44399999999999</v>
       </c>
       <c r="E47" s="1">
-        <v>703.846</v>
+        <v>393.44400000000002</v>
       </c>
       <c r="F47" s="1">
-        <v>181.96199999999999</v>
+        <v>184.44399999999999</v>
       </c>
       <c r="G47" s="1">
-        <v>733.46199999999999</v>
+        <v>423.33300000000003</v>
       </c>
       <c r="H47" s="1">
-        <v>0.37</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I47" s="1">
-        <v>177</v>
+        <v>85.5</v>
       </c>
       <c r="J47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>20.5</v>
+        <v>8</v>
       </c>
       <c r="C48" s="1">
-        <v>630</v>
+        <v>133</v>
       </c>
       <c r="D48" s="1">
-        <v>141.44399999999999</v>
+        <v>130.78100000000001</v>
       </c>
       <c r="E48" s="1">
-        <v>393.44400000000002</v>
+        <v>370.38499999999999</v>
       </c>
       <c r="F48" s="1">
-        <v>184.44399999999999</v>
+        <v>173.94800000000001</v>
       </c>
       <c r="G48" s="1">
-        <v>423.33300000000003</v>
+        <v>419.80200000000002</v>
       </c>
       <c r="H48" s="1">
-        <v>2.1800000000000002</v>
+        <v>13.55</v>
       </c>
       <c r="I48" s="1">
-        <v>85.5</v>
+        <v>156</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C49" s="1">
-        <v>133</v>
+        <v>585</v>
       </c>
       <c r="D49" s="1">
-        <v>130.78100000000001</v>
+        <v>131.88300000000001</v>
       </c>
       <c r="E49" s="1">
-        <v>370.38499999999999</v>
+        <v>375.33</v>
       </c>
       <c r="F49" s="1">
-        <v>173.94800000000001</v>
+        <v>173.989</v>
       </c>
       <c r="G49" s="1">
-        <v>419.80200000000002</v>
+        <v>424.67</v>
       </c>
       <c r="H49" s="1">
-        <v>13.55</v>
+        <v>11.59</v>
       </c>
       <c r="I49" s="1">
-        <v>156</v>
+        <v>62.5</v>
       </c>
       <c r="J49" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1">
         <v>74</v>
       </c>
       <c r="C50" s="1">
-        <v>585</v>
+        <v>682</v>
       </c>
       <c r="D50" s="1">
-        <v>131.88300000000001</v>
+        <v>135.035</v>
       </c>
       <c r="E50" s="1">
-        <v>375.33</v>
+        <v>411.75400000000002</v>
       </c>
       <c r="F50" s="1">
-        <v>173.989</v>
+        <v>176.86</v>
       </c>
       <c r="G50" s="1">
-        <v>424.67</v>
+        <v>454.91199999999998</v>
       </c>
       <c r="H50" s="1">
-        <v>11.59</v>
+        <v>5.76</v>
       </c>
       <c r="I50" s="1">
-        <v>62.5</v>
+        <v>85.9</v>
       </c>
       <c r="J50" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1">
-        <v>682</v>
+        <v>600</v>
       </c>
       <c r="D51" s="1">
-        <v>135.035</v>
+        <v>136.01400000000001</v>
       </c>
       <c r="E51" s="1">
-        <v>411.75400000000002</v>
+        <v>899.68899999999996</v>
       </c>
       <c r="F51" s="1">
-        <v>176.86</v>
+        <v>180.24299999999999</v>
       </c>
       <c r="G51" s="1">
-        <v>454.91199999999998</v>
+        <v>877.68899999999996</v>
       </c>
       <c r="H51" s="1">
-        <v>5.76</v>
+        <v>21.83</v>
       </c>
       <c r="I51" s="1">
-        <v>85.9</v>
+        <v>142.4</v>
       </c>
       <c r="J51" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52" s="1">
-        <v>41</v>
+        <v>57.9</v>
       </c>
       <c r="C52" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="D52" s="1">
-        <v>136.01400000000001</v>
+        <v>110.203</v>
       </c>
       <c r="E52" s="1">
-        <v>899.68899999999996</v>
+        <v>480.51799999999997</v>
       </c>
       <c r="F52" s="1">
-        <v>180.24299999999999</v>
+        <v>160.91800000000001</v>
       </c>
       <c r="G52" s="1">
-        <v>877.68899999999996</v>
+        <v>496.11799999999999</v>
       </c>
       <c r="H52" s="1">
-        <v>21.83</v>
+        <v>34.92</v>
       </c>
       <c r="I52" s="1">
-        <v>142.4</v>
+        <v>6.8</v>
       </c>
       <c r="J52" s="1">
         <v>3</v>
@@ -2738,199 +2744,199 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C53" s="1">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D53" s="1">
-        <v>133.12799999999999</v>
+        <v>77.064700000000002</v>
       </c>
       <c r="E53" s="1">
-        <v>374.70100000000002</v>
+        <v>611.67700000000002</v>
       </c>
       <c r="F53" s="1">
-        <v>177.79499999999999</v>
+        <v>134.447</v>
       </c>
       <c r="G53" s="1">
-        <v>412.20499999999998</v>
+        <v>567.49900000000002</v>
       </c>
       <c r="H53" s="1">
-        <v>15.3</v>
+        <v>59.7</v>
       </c>
       <c r="I53" s="1">
-        <v>4</v>
+        <v>58.5</v>
       </c>
       <c r="J53" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C54" s="1">
-        <v>681</v>
+        <v>433</v>
       </c>
       <c r="D54" s="1">
-        <v>114.246</v>
+        <v>133.12799999999999</v>
       </c>
       <c r="E54" s="1">
-        <v>512.923</v>
+        <v>374.70100000000002</v>
       </c>
       <c r="F54" s="1">
-        <v>166.64599999999999</v>
+        <v>177.79499999999999</v>
       </c>
       <c r="G54" s="1">
-        <v>500.76900000000001</v>
+        <v>412.20499999999998</v>
       </c>
       <c r="H54" s="1">
-        <v>7.18</v>
+        <v>15.3</v>
       </c>
       <c r="I54" s="1">
-        <v>20.6</v>
+        <v>4</v>
       </c>
       <c r="J54" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="C55" s="1">
-        <v>792</v>
+        <v>681</v>
       </c>
       <c r="D55" s="1">
-        <v>110.687</v>
+        <v>114.246</v>
       </c>
       <c r="E55" s="1">
-        <v>502.267</v>
+        <v>512.923</v>
       </c>
       <c r="F55" s="1">
-        <v>161.63399999999999</v>
+        <v>166.64599999999999</v>
       </c>
       <c r="G55" s="1">
-        <v>506.214</v>
+        <v>500.76900000000001</v>
       </c>
       <c r="H55" s="1">
-        <v>4.76</v>
+        <v>7.18</v>
       </c>
       <c r="I55" s="1">
-        <v>35.799999999999997</v>
+        <v>20.6</v>
       </c>
       <c r="J55" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>57.9</v>
+        <v>210</v>
       </c>
       <c r="C56" s="1">
-        <v>610</v>
+        <v>792</v>
       </c>
       <c r="D56" s="1">
-        <v>110.203</v>
+        <v>110.687</v>
       </c>
       <c r="E56" s="1">
-        <v>480.51799999999997</v>
+        <v>502.267</v>
       </c>
       <c r="F56" s="1">
-        <v>160.91800000000001</v>
+        <v>161.63399999999999</v>
       </c>
       <c r="G56" s="1">
-        <v>496.11799999999999</v>
+        <v>506.214</v>
       </c>
       <c r="H56" s="1">
-        <v>34.92</v>
+        <v>4.76</v>
       </c>
       <c r="I56" s="1">
-        <v>6.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="J56" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>84</v>
+        <v>379</v>
       </c>
       <c r="C57" s="1">
-        <v>442</v>
+        <v>1203</v>
       </c>
       <c r="D57" s="1">
-        <v>77.064700000000002</v>
+        <v>141.19399999999999</v>
       </c>
       <c r="E57" s="1">
-        <v>611.67700000000002</v>
+        <v>449.58300000000003</v>
       </c>
       <c r="F57" s="1">
-        <v>134.447</v>
+        <v>183.03700000000001</v>
       </c>
       <c r="G57" s="1">
-        <v>567.49900000000002</v>
+        <v>482.53699999999998</v>
       </c>
       <c r="H57" s="1">
-        <v>59.7</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="I57" s="1">
-        <v>58.5</v>
+        <v>6.9</v>
       </c>
       <c r="J57" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" s="1">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1">
-        <v>1203</v>
+        <v>567</v>
       </c>
       <c r="D58" s="1">
-        <v>141.19399999999999</v>
+        <v>141.61500000000001</v>
       </c>
       <c r="E58" s="1">
-        <v>449.58300000000003</v>
+        <v>703.846</v>
       </c>
       <c r="F58" s="1">
-        <v>183.03700000000001</v>
+        <v>181.96199999999999</v>
       </c>
       <c r="G58" s="1">
-        <v>482.53699999999998</v>
+        <v>733.46199999999999</v>
       </c>
       <c r="H58" s="1">
-        <v>18.239999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="I58" s="1">
-        <v>6.9</v>
+        <v>177</v>
       </c>
       <c r="J58" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>61.5</v>
@@ -2962,7 +2968,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>195</v>
@@ -2993,6 +2999,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J60">
+    <sortCondition ref="A2:A60"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>